--- a/natmiOut/OldD7/LR-pairs_lrc2p/Rspo3-Sdc4.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Rspo3-Sdc4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Rspo3</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>M2</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.60438815539265</v>
+        <v>4.83236</v>
       </c>
       <c r="H2">
-        <v>4.60438815539265</v>
+        <v>14.49708</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.975350813525687</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.975350813525687</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.18686435064815</v>
+        <v>3.438907666666667</v>
       </c>
       <c r="N2">
-        <v>2.18686435064815</v>
+        <v>10.316723</v>
       </c>
       <c r="O2">
-        <v>0.04099039030736239</v>
+        <v>0.05825422340060618</v>
       </c>
       <c r="P2">
-        <v>0.04099039030736239</v>
+        <v>0.05825422340060618</v>
       </c>
       <c r="Q2">
-        <v>10.06917231357478</v>
+        <v>16.61803985209334</v>
       </c>
       <c r="R2">
-        <v>10.06917231357478</v>
+        <v>149.56235866884</v>
       </c>
       <c r="S2">
-        <v>0.04099039030736239</v>
+        <v>0.05681830418508835</v>
       </c>
       <c r="T2">
-        <v>0.04099039030736239</v>
+        <v>0.05681830418508835</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.60438815539265</v>
+        <v>4.83236</v>
       </c>
       <c r="H3">
-        <v>4.60438815539265</v>
+        <v>14.49708</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.975350813525687</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.975350813525687</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>10.3350883614071</v>
+        <v>10.383857</v>
       </c>
       <c r="N3">
-        <v>10.3350883614071</v>
+        <v>31.151571</v>
       </c>
       <c r="O3">
-        <v>0.1937199742954317</v>
+        <v>0.1758999031294962</v>
       </c>
       <c r="P3">
-        <v>0.1937199742954317</v>
+        <v>0.1758999031294962</v>
       </c>
       <c r="Q3">
-        <v>47.58675843619928</v>
+        <v>50.17853521252001</v>
       </c>
       <c r="R3">
-        <v>47.58675843619928</v>
+        <v>451.60681691268</v>
       </c>
       <c r="S3">
-        <v>0.1937199742954317</v>
+        <v>0.1715641136164436</v>
       </c>
       <c r="T3">
-        <v>0.1937199742954317</v>
+        <v>0.1715641136164436</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.60438815539265</v>
+        <v>4.83236</v>
       </c>
       <c r="H4">
-        <v>4.60438815539265</v>
+        <v>14.49708</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.975350813525687</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.975350813525687</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>23.1076762226289</v>
+        <v>25.34077833333333</v>
       </c>
       <c r="N4">
-        <v>23.1076762226289</v>
+        <v>76.022335</v>
       </c>
       <c r="O4">
-        <v>0.4331282217760713</v>
+        <v>0.4292663558501786</v>
       </c>
       <c r="P4">
-        <v>0.4331282217760713</v>
+        <v>0.4292663558501786</v>
       </c>
       <c r="Q4">
-        <v>106.3967106981209</v>
+        <v>122.4557635868667</v>
       </c>
       <c r="R4">
-        <v>106.3967106981209</v>
+        <v>1102.1018722818</v>
       </c>
       <c r="S4">
-        <v>0.4331282217760713</v>
+        <v>0.4186852893976787</v>
       </c>
       <c r="T4">
-        <v>0.4331282217760713</v>
+        <v>0.4186852893976788</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,309 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>4.83236</v>
+      </c>
+      <c r="H5">
+        <v>14.49708</v>
+      </c>
+      <c r="I5">
+        <v>0.975350813525687</v>
+      </c>
+      <c r="J5">
+        <v>0.975350813525687</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>19.86921833333334</v>
+      </c>
+      <c r="N5">
+        <v>59.60765500000001</v>
+      </c>
+      <c r="O5">
+        <v>0.336579517619719</v>
+      </c>
+      <c r="P5">
+        <v>0.336579517619719</v>
+      </c>
+      <c r="Q5">
+        <v>96.01521590526669</v>
+      </c>
+      <c r="R5">
+        <v>864.1369431474002</v>
+      </c>
+      <c r="S5">
+        <v>0.3282831063264762</v>
+      </c>
+      <c r="T5">
+        <v>0.3282831063264763</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.122124</v>
+      </c>
+      <c r="H6">
+        <v>0.366372</v>
+      </c>
+      <c r="I6">
+        <v>0.02464918647431296</v>
+      </c>
+      <c r="J6">
+        <v>0.02464918647431296</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>3.438907666666667</v>
+      </c>
+      <c r="N6">
+        <v>10.316723</v>
+      </c>
+      <c r="O6">
+        <v>0.05825422340060618</v>
+      </c>
+      <c r="P6">
+        <v>0.05825422340060618</v>
+      </c>
+      <c r="Q6">
+        <v>0.419973159884</v>
+      </c>
+      <c r="R6">
+        <v>3.779758438956</v>
+      </c>
+      <c r="S6">
+        <v>0.001435919215517827</v>
+      </c>
+      <c r="T6">
+        <v>0.001435919215517828</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.122124</v>
+      </c>
+      <c r="H7">
+        <v>0.366372</v>
+      </c>
+      <c r="I7">
+        <v>0.02464918647431296</v>
+      </c>
+      <c r="J7">
+        <v>0.02464918647431296</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>10.383857</v>
+      </c>
+      <c r="N7">
+        <v>31.151571</v>
+      </c>
+      <c r="O7">
+        <v>0.1758999031294962</v>
+      </c>
+      <c r="P7">
+        <v>0.1758999031294962</v>
+      </c>
+      <c r="Q7">
+        <v>1.268118152268</v>
+      </c>
+      <c r="R7">
+        <v>11.413063370412</v>
+      </c>
+      <c r="S7">
+        <v>0.004335789513052537</v>
+      </c>
+      <c r="T7">
+        <v>0.004335789513052538</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
         <v>25</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>4.60438815539265</v>
-      </c>
-      <c r="H5">
-        <v>4.60438815539265</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>17.7210304332839</v>
-      </c>
-      <c r="N5">
-        <v>17.7210304332839</v>
-      </c>
-      <c r="O5">
-        <v>0.3321614136211347</v>
-      </c>
-      <c r="P5">
-        <v>0.3321614136211347</v>
-      </c>
-      <c r="Q5">
-        <v>81.59450262836506</v>
-      </c>
-      <c r="R5">
-        <v>81.59450262836506</v>
-      </c>
-      <c r="S5">
-        <v>0.3321614136211347</v>
-      </c>
-      <c r="T5">
-        <v>0.3321614136211347</v>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.122124</v>
+      </c>
+      <c r="H8">
+        <v>0.366372</v>
+      </c>
+      <c r="I8">
+        <v>0.02464918647431296</v>
+      </c>
+      <c r="J8">
+        <v>0.02464918647431296</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>25.34077833333333</v>
+      </c>
+      <c r="N8">
+        <v>76.022335</v>
+      </c>
+      <c r="O8">
+        <v>0.4292663558501786</v>
+      </c>
+      <c r="P8">
+        <v>0.4292663558501786</v>
+      </c>
+      <c r="Q8">
+        <v>3.09471721318</v>
+      </c>
+      <c r="R8">
+        <v>27.85245491862</v>
+      </c>
+      <c r="S8">
+        <v>0.01058106645249984</v>
+      </c>
+      <c r="T8">
+        <v>0.01058106645249984</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.122124</v>
+      </c>
+      <c r="H9">
+        <v>0.366372</v>
+      </c>
+      <c r="I9">
+        <v>0.02464918647431296</v>
+      </c>
+      <c r="J9">
+        <v>0.02464918647431296</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>19.86921833333334</v>
+      </c>
+      <c r="N9">
+        <v>59.60765500000001</v>
+      </c>
+      <c r="O9">
+        <v>0.336579517619719</v>
+      </c>
+      <c r="P9">
+        <v>0.336579517619719</v>
+      </c>
+      <c r="Q9">
+        <v>2.42650841974</v>
+      </c>
+      <c r="R9">
+        <v>21.83857577766</v>
+      </c>
+      <c r="S9">
+        <v>0.008296411293242758</v>
+      </c>
+      <c r="T9">
+        <v>0.00829641129324276</v>
       </c>
     </row>
   </sheetData>
